--- a/Output_testing/R1_201907/Country/HKD/MN/NORWAY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NORWAY_201907_HKD_MN.xlsx
@@ -810,136 +810,445 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>192.439174</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>11.20215720990727</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>216.873906</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>15.02509929952028</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>316.234593</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>21.5687309498245</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>192.967675</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>20.75014987074975</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>30.77615243154337</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>0.565708</v>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>101.576963</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.92274758280423</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>90.957615</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.294771753012301</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>92.28359</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.393439068074038</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>207.30261</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>14.13904208856239</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>73.037553</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.853855164823995</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-8.80513316444903</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>78.30963300000001</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.558514785124477</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>50.302879</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.485000874317969</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>67.27088500000001</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.588200188843934</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>62.888362</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.762494996252421</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>84.44059768522048</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>64.307844</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.743450791979556</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>70.93847100000001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.914641833080368</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>62.822081</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.284770207910435</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>60.197226</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.473112459397116</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>113.4166556969469</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>309.485835</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>18.0156093265575</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>196.623116</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>13.62211755655424</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>161.612925</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>11.02278426996494</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>56.15124</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.038040544502794</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-43.74531438371393</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>125.214392</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>7.288907320538357</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>106.992751</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>7.412494835150188</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>87.220311</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>5.948847668664188</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>49.006853</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>5.269792178632001</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-10.90814805576952</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>94.67947599999999</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.511426559665248</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>88.483282</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>6.130152413990529</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>71.12820000000001</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.851287755053752</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>46.433361</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>4.993060105805942</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-8.703953444156054</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>49.491174</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.880951420269945</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>46.045807</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.190069452161505</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>49.135996</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.351312921276935</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>21.821623</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.346517092424935</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-37.75893437986383</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>60.25708</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.50765007529059</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>47.094854</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.262747791550403</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>36.326731</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.47765900559035</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>21.75988</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.339877760197557</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>8.861570843108503</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>652.575461</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>37.98734297960408</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>527.592642</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>36.55180091488854</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>406.551492</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>27.7287809186572</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>244.117246</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>26.25035224440925</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-4.754011428071303</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1280,497 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>2.353193494256142</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>3.849243524347561</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>5.51059702723079</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>8.424631</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>79.02653616257911</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.981192</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>15.40074235111642</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.963955</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>25.45461638599414</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.842086</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>27.41392770859135</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.743457</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>6.97393529708572</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-18.51927757983326</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.813234</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>14.09512538728414</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>2.810045</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>36.42070083193399</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>3.32309</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>49.45423233722141</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.718105</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.736123012512817</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-51.25807721546482</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.632364</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.915664426325861</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.58938</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>7.638892849162648</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.412554397438153</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.075904630820161</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-5.111416970024396</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.540505</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>4.201600977840704</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.299569853785541</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.880724027260256</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.753687370837546</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>65.77285947364689</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1664922428902456</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.598751054006896</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>2.135344</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>16.5990387478863</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.045158353634417</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.923974994664802</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.11835185355596</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>77.46914958543591</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.3585125708328569</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.5368014271501738</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.7735515868232372</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.2603628025641178</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-17.97145136980228</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.5910793334993228</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.4855281228112287</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.8348951994530566</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2544719018575942</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-6.584022038567494</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.73187</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>5.689171622190871</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>3.835828997049582</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.1960852595852743</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.1374043209381466</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>77.74541924523723</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>4.583457</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>35.62937884587714</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0.959321</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>12.43365965413072</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>5.599457461731676</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.0644715932419362</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-97.53415516202175</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1802,445 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>192.439174</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>11.28667715221304</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>216.873906</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>15.10584512026579</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>316.234593</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>21.66803647532895</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>192.967675</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>20.99077618154184</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>30.77615243154337</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>0.565708</v>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>101.576963</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>11.04941175009626</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>90.957615</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.334720648095749</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>92.28359</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.427797808382298</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>207.30261</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>14.20414026276654</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>73.037553</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.944931335626547</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-8.80513316444903</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>78.30963300000001</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.592908643326897</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>50.302879</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.50372948637477</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>67.27088500000001</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.609324919451993</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>62.888362</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.84091535624182</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>84.44059768522048</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>309.485835</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>18.15153656203116</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>196.623116</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>13.6953236659096</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>161.612925</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>11.0735347469864</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>56.15124</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.108059866275734</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-43.74531438371393</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>64.005123</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.753940241858893</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>70.641482</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.920367350039996</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>62.451795</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.279126325720368</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>51.772595</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.631756479330603</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>84.09401800880491</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>125.135328</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>7.339264756313521</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>106.943366</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>7.44889024793927</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>87.220311</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.97623701508688</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>49.006853</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>5.330902611977483</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-10.90814805576952</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>94.658058</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.551753929797356</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>88.483282</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>6.163096235398653</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>71.12820000000001</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.873623778485526</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>46.262926</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>5.032421752343923</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-9.039058234325026</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>47.35583</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>2.777448860204966</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>45.656547</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.180100088703781</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>49.006714</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.357884589457339</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>21.702401</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.360759344761084</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-37.9801494993137</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>59.716575</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.502414236411744</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>46.76312</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.257175845121743</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>36.13316</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.475803236519722</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>21.572928</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.346675437886252</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>8.538654188646078</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>642.79025</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>37.7000476438353</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>520.944494</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>36.28517135952367</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>400.525105</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>27.44352697816635</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>242.357977</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>26.36338988391846</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-4.332283342826237</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2272,447 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1152.278338</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>70.38081906257473</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>912.67669</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>66.06377379232453</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>950.2855970000001</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>66.63551831452249</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>503.706053</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>67.45991145168699</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-11.0298839786577</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>104.798949</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.40108871639397</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>49.108972</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>3.554735267076449</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>88.235579</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.187217357611908</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>38.253035</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>5.123119602174571</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-37.41870701077855</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NICKEL</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>23.407074</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.429697136229855</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>50.525438</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.657265648791926</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>1.527949017282059</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>21.803349</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.920060190124871</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>149.5518942428751</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6.996562</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.42734793143537</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>18.957404</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.372224866996119</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>17.945323</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.258354228667239</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>12.933842</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.732192477842053</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>62.7927952420726</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>30.370066</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.85499462202374</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>31.791941</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.301248209421156</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>34.406194</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.412616352029182</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>11.71103</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.568424763019574</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-45.39450376642205</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR VEHICLES FOR THE TRANSPORT OF GOODS AND SPECIAL PURPOSE MOTOR VEHICLES</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>11.268675</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.509181422677561</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>20.669804</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.262505496638854</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>15.895037</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.150556533648984</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>7.752664</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.5436289738466268</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>11.246902</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.50626542704223</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>380.7730566395522</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>INORGANIC CHEMICAL ELEMENTS, OXIDES AND HALOGEN SALTS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1.667086</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.1018251183402455</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>12.215295</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.8841997330801918</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>11.743353</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.8234623531870729</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>8.845050000000001</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.184592256201742</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>2.78217993670653</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>STARCHES, INULIN AND WHEAT GLUTEN; ALBUMINOIDAL SUBSTANCES; GLUES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>13.453354</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.8217268713930871</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>11.600686</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8397114817732291</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>20.150438</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.412980355204362</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>8.140675999999999</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.090257460370192</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-19.7497266886893</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5.79241</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.3537986844861163</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>6.758524</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.4892133277842303</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>11.157047</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.782349655778786</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>7.585515</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.01590633498987</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>43.84810898565807</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>277.771427</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>16.96619636048403</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>271.978573</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>19.68707113910319</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>262.628508</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>18.41592339187028</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>111.180516</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>14.89008861387034</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-30.31884233748576</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
